--- a/data/trans_orig/P6604-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P6604-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>66782</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>53211</v>
+        <v>52556</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>81383</v>
+        <v>81572</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2714557869067149</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.216289198354829</v>
+        <v>0.2136285288274695</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3308051042128811</v>
+        <v>0.3315701899995266</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>91</v>
@@ -765,19 +765,19 @@
         <v>99266</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>83638</v>
+        <v>81520</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>115362</v>
+        <v>114840</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4576296973177583</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3855819649595704</v>
+        <v>0.3758193461897166</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5318334202697179</v>
+        <v>0.529428343531501</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>155</v>
@@ -786,19 +786,19 @@
         <v>166048</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>145533</v>
+        <v>144779</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>188283</v>
+        <v>189176</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3586905769823319</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3143742712840378</v>
+        <v>0.3127465935326227</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.406721589261614</v>
+        <v>0.4086507361261158</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>49574</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>37700</v>
+        <v>37543</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>64227</v>
+        <v>65010</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2015072670653513</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1532402754494955</v>
+        <v>0.1526055970986531</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2610676547476614</v>
+        <v>0.2642525906614613</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>40</v>
@@ -836,19 +836,19 @@
         <v>43394</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32815</v>
+        <v>31213</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>55605</v>
+        <v>56593</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2000507301234769</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1512803445121525</v>
+        <v>0.1438953888100935</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2563484794364628</v>
+        <v>0.2608998644284151</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>89</v>
@@ -857,19 +857,19 @@
         <v>92967</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>76924</v>
+        <v>76104</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>111735</v>
+        <v>110614</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2008247831765977</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1661694507498682</v>
+        <v>0.1643978969944518</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2413662275742934</v>
+        <v>0.2389442516654665</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>66833</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>52553</v>
+        <v>51969</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>82185</v>
+        <v>80862</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2716617062313221</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.213616072659585</v>
+        <v>0.2112404160265791</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3340618746964646</v>
+        <v>0.3286866468222832</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>45</v>
@@ -907,19 +907,19 @@
         <v>47430</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>35287</v>
+        <v>35840</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>60437</v>
+        <v>61951</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2186577686326026</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1626761761695445</v>
+        <v>0.165229161958752</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2786242580430816</v>
+        <v>0.2856013455345116</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>108</v>
@@ -928,19 +928,19 @@
         <v>114263</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>95088</v>
+        <v>96518</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>134917</v>
+        <v>136447</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2468258559266431</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.205404851894007</v>
+        <v>0.2084941726691892</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2914424371670513</v>
+        <v>0.2947469420200982</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>62826</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49070</v>
+        <v>49297</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77494</v>
+        <v>79886</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2553752397966117</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1994578280274277</v>
+        <v>0.2003822933557653</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3149972282826933</v>
+        <v>0.3247206995212908</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -978,19 +978,19 @@
         <v>26824</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18002</v>
+        <v>18522</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38671</v>
+        <v>38749</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1236618039261622</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0829933561824986</v>
+        <v>0.08538999921045108</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1782778133989862</v>
+        <v>0.1786367402391738</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>79</v>
@@ -999,19 +999,19 @@
         <v>89650</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>73632</v>
+        <v>71740</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110178</v>
+        <v>107281</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1936587839144273</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1590577006418358</v>
+        <v>0.1549703647704496</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2380016835585617</v>
+        <v>0.2317441686183144</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>162174</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>140994</v>
+        <v>139695</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>185977</v>
+        <v>185963</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2532434633534647</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.220170712069873</v>
+        <v>0.2181421922136116</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2904140832706728</v>
+        <v>0.2903923607913467</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>120</v>
@@ -1124,19 +1124,19 @@
         <v>127652</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>111594</v>
+        <v>110842</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>145255</v>
+        <v>144959</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4438580849358396</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3880222515612126</v>
+        <v>0.3854080858071443</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5050658589821103</v>
+        <v>0.5040371746834047</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>278</v>
@@ -1145,19 +1145,19 @@
         <v>289825</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>261969</v>
+        <v>263036</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>322647</v>
+        <v>320172</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3123177761698832</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2822995722034686</v>
+        <v>0.2834496510785255</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3476870722852659</v>
+        <v>0.3450195211086306</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>161392</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>139407</v>
+        <v>140232</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>184754</v>
+        <v>189274</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2520225996985607</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2176924394286128</v>
+        <v>0.2189796283176171</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2885033618866257</v>
+        <v>0.2955618365557794</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>81</v>
@@ -1195,19 +1195,19 @@
         <v>85282</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>68857</v>
+        <v>71425</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>101676</v>
+        <v>101325</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2965343969218076</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2394210371516381</v>
+        <v>0.2483529606276602</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3535363545806927</v>
+        <v>0.3523163063685454</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>235</v>
@@ -1216,19 +1216,19 @@
         <v>246674</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>219907</v>
+        <v>219084</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>276434</v>
+        <v>273621</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2658174692177949</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2369731568291774</v>
+        <v>0.2360865938092758</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.297887613556703</v>
+        <v>0.2948562417094532</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>171866</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>149092</v>
+        <v>149357</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>196035</v>
+        <v>195550</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2683782095589891</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2328152875466351</v>
+        <v>0.2332290813108902</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3061195132271202</v>
+        <v>0.3053625181437915</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>35</v>
@@ -1266,19 +1266,19 @@
         <v>34815</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>25461</v>
+        <v>24513</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>46614</v>
+        <v>48464</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1210563132084515</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08852974555374678</v>
+        <v>0.08523496954501733</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1620806359092606</v>
+        <v>0.1685144670941908</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>202</v>
@@ -1287,19 +1287,19 @@
         <v>206681</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>181770</v>
+        <v>182387</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>233587</v>
+        <v>233091</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2227209576783477</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1958761968095183</v>
+        <v>0.19654099320314</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.251714944247405</v>
+        <v>0.2511803539768706</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>144955</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>124242</v>
+        <v>124090</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>168696</v>
+        <v>166854</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2263557273889855</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1940113597823176</v>
+        <v>0.1937741906434426</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2634278262909495</v>
+        <v>0.260551908763188</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>37</v>
@@ -1337,19 +1337,19 @@
         <v>39847</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>29079</v>
+        <v>27153</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>52473</v>
+        <v>52661</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1385512049339014</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1011106609387395</v>
+        <v>0.09441219796938109</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1824543369827167</v>
+        <v>0.1831079693457229</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>170</v>
@@ -1358,19 +1358,19 @@
         <v>184802</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>157136</v>
+        <v>159561</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>210397</v>
+        <v>211893</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1991437969339742</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1693310851862143</v>
+        <v>0.1719437370690775</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2267256071826301</v>
+        <v>0.2283372247542787</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>254622</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>227036</v>
+        <v>231234</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>280120</v>
+        <v>283425</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3609144205608822</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3218124471522848</v>
+        <v>0.3277631847892594</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3970573868201335</v>
+        <v>0.4017421832506651</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>175</v>
@@ -1483,19 +1483,19 @@
         <v>178537</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>156678</v>
+        <v>158437</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>195794</v>
+        <v>196693</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5021994395227735</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4407129758954635</v>
+        <v>0.445661644292152</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5507423697992341</v>
+        <v>0.5532706120114227</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>419</v>
@@ -1504,19 +1504,19 @@
         <v>433159</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>403023</v>
+        <v>403461</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>466188</v>
+        <v>467735</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4082548131077288</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3798513149058679</v>
+        <v>0.3802641403585035</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.439385396292628</v>
+        <v>0.4408427902726552</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>200006</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>178722</v>
+        <v>174973</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>226203</v>
+        <v>223664</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2834995251021791</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2533301526056924</v>
+        <v>0.248016231168961</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3206315797338098</v>
+        <v>0.3170332496688852</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>84</v>
@@ -1554,19 +1554,19 @@
         <v>88108</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>72699</v>
+        <v>71470</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>105640</v>
+        <v>106273</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2478351510163929</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2044916973798811</v>
+        <v>0.2010360696373946</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2971517655926795</v>
+        <v>0.2989300762731643</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>277</v>
@@ -1575,19 +1575,19 @@
         <v>288114</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>260134</v>
+        <v>258881</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>316749</v>
+        <v>318173</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2715494579148427</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2451781430416391</v>
+        <v>0.2439972022752708</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2985375597008</v>
+        <v>0.299879881627921</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>154346</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>134609</v>
+        <v>130725</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>176792</v>
+        <v>175718</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2187787625213541</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.190802418391114</v>
+        <v>0.1852970298086308</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.250593749306567</v>
+        <v>0.2490720787197455</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>59</v>
@@ -1625,19 +1625,19 @@
         <v>61142</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>47896</v>
+        <v>47997</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>77272</v>
+        <v>79240</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1719848788464076</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1347250543990425</v>
+        <v>0.1350102135382762</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2173557273945603</v>
+        <v>0.2228924303990432</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>209</v>
@@ -1646,19 +1646,19 @@
         <v>215489</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>189783</v>
+        <v>190705</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>239254</v>
+        <v>241635</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2030995288825706</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1788714728027911</v>
+        <v>0.1797406100625524</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2254979430148836</v>
+        <v>0.2277424791706303</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>96516</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>77545</v>
+        <v>80800</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>114453</v>
+        <v>118291</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1368072918155846</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1099169399251616</v>
+        <v>0.114530599970087</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1622317372108386</v>
+        <v>0.1676716365917147</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -1696,19 +1696,19 @@
         <v>27723</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18626</v>
+        <v>18175</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39216</v>
+        <v>38229</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07798053061442613</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05239312087983439</v>
+        <v>0.0511232317706849</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1103092181167648</v>
+        <v>0.1075320527641861</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>122</v>
@@ -1717,19 +1717,19 @@
         <v>124239</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>104322</v>
+        <v>105928</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>145776</v>
+        <v>148765</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1170962000948579</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09832434299346325</v>
+        <v>0.09983744560135326</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1373945648551081</v>
+        <v>0.1402115566159347</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>154889</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>135547</v>
+        <v>136342</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>172118</v>
+        <v>171625</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5089067377345059</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4453555100256953</v>
+        <v>0.4479672465957745</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5655153531885143</v>
+        <v>0.5638942092772462</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>104</v>
@@ -1842,19 +1842,19 @@
         <v>106654</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>94428</v>
+        <v>94995</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>117733</v>
+        <v>117873</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6674953027294086</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5909750591327774</v>
+        <v>0.5945263150853662</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7368317186131402</v>
+        <v>0.7377095987280541</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>252</v>
@@ -1863,19 +1863,19 @@
         <v>261543</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>240904</v>
+        <v>238823</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>283638</v>
+        <v>282258</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5635018414696242</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5190346261875555</v>
+        <v>0.5145522486844754</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6111066480781672</v>
+        <v>0.6081337684448694</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>66817</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>54167</v>
+        <v>53495</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>84406</v>
+        <v>82846</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2195368768790007</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1779735407138598</v>
+        <v>0.1757652693598124</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.277327413764785</v>
+        <v>0.2721994772429038</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>29</v>
@@ -1913,19 +1913,19 @@
         <v>29359</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20652</v>
+        <v>20308</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>39591</v>
+        <v>39190</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1837415288455245</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1292493514949533</v>
+        <v>0.1270963096981633</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2477828156398604</v>
+        <v>0.2452709336442621</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>94</v>
@@ -1934,19 +1934,19 @@
         <v>96176</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>79152</v>
+        <v>79991</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>114353</v>
+        <v>114706</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2072141048103771</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1705347920579361</v>
+        <v>0.1723421489996907</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2463779491496757</v>
+        <v>0.2471372730278226</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>49362</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>37000</v>
+        <v>36108</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>62653</v>
+        <v>64746</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1621837515441811</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1215684909121952</v>
+        <v>0.1186387458244843</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2058547500199254</v>
+        <v>0.2127311225277693</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -1984,19 +1984,19 @@
         <v>12791</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6809</v>
+        <v>6977</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>20572</v>
+        <v>20421</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08005251316940391</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04261331364338731</v>
+        <v>0.04366350731148765</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1287507523163983</v>
+        <v>0.1278055766223581</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>59</v>
@@ -2005,19 +2005,19 @@
         <v>62153</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>49685</v>
+        <v>48168</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>78425</v>
+        <v>77168</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1339095599017458</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1070480511387473</v>
+        <v>0.1037791346929613</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1689695400445839</v>
+        <v>0.1662611677821548</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>33288</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23151</v>
+        <v>23477</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46502</v>
+        <v>45853</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1093726338423122</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07606682649400033</v>
+        <v>0.07713592344917494</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1527866441129282</v>
+        <v>0.150654798439934</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -2055,19 +2055,19 @@
         <v>10979</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5932</v>
+        <v>5795</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19095</v>
+        <v>18125</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06871065525566301</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03712274386244408</v>
+        <v>0.03626552297860627</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1195061519715353</v>
+        <v>0.1134345491913055</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>42</v>
@@ -2076,19 +2076,19 @@
         <v>44267</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>32913</v>
+        <v>32039</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>59217</v>
+        <v>57494</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09537449381825296</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07091302405927148</v>
+        <v>0.06902967133865102</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1275853189918826</v>
+        <v>0.1238731318137153</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>638467</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>594163</v>
+        <v>597512</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>681820</v>
+        <v>684413</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3366997932804766</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.313335929212435</v>
+        <v>0.3151019469283401</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3595623934522112</v>
+        <v>0.3609298258403983</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>490</v>
@@ -2201,19 +2201,19 @@
         <v>512108</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>479067</v>
+        <v>479123</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>544090</v>
+        <v>545284</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.502165055510073</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4697657357534715</v>
+        <v>0.469820066029791</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5335261273525765</v>
+        <v>0.5346973636619008</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1104</v>
@@ -2222,19 +2222,19 @@
         <v>1150575</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1098336</v>
+        <v>1099311</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1207455</v>
+        <v>1206603</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3945662708188071</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3766518401481076</v>
+        <v>0.376986422126202</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4140722320233871</v>
+        <v>0.4137798388584333</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>477790</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>438370</v>
+        <v>439837</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>514564</v>
+        <v>513747</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2519655931310856</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.231177128181693</v>
+        <v>0.2319508747525255</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2713586143827362</v>
+        <v>0.270927760573666</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>234</v>
@@ -2272,19 +2272,19 @@
         <v>246142</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>220540</v>
+        <v>218464</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>272741</v>
+        <v>273926</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2413629062854918</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2162582776072097</v>
+        <v>0.2142227948354697</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2674459522649395</v>
+        <v>0.2686079763992688</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>695</v>
@@ -2293,19 +2293,19 @@
         <v>723932</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>676793</v>
+        <v>674379</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>771222</v>
+        <v>773210</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2482576236640855</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2320924794367616</v>
+        <v>0.2312645569641096</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2644750441620437</v>
+        <v>0.2651567769299796</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>442407</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>407496</v>
+        <v>407527</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>477046</v>
+        <v>481421</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.233306307894589</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2148956242380683</v>
+        <v>0.2149121605290108</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2515735928130127</v>
+        <v>0.2538803041191267</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>152</v>
@@ -2343,19 +2343,19 @@
         <v>156178</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>134180</v>
+        <v>134162</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>182842</v>
+        <v>182217</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1531458260076296</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1315746356314408</v>
+        <v>0.1315570700686129</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1792919303082466</v>
+        <v>0.1786787962871846</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>578</v>
@@ -2364,19 +2364,19 @@
         <v>598585</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>552412</v>
+        <v>553460</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>641869</v>
+        <v>649219</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2052726006253433</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1894384688093772</v>
+        <v>0.1897976942085921</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2201159845533551</v>
+        <v>0.2226362760819665</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>337586</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>305687</v>
+        <v>304070</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>375514</v>
+        <v>374918</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1780283056938489</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1612061552241885</v>
+        <v>0.1603532276993668</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1980300267268023</v>
+        <v>0.1977152281147522</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>99</v>
@@ -2414,19 +2414,19 @@
         <v>105372</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>87416</v>
+        <v>86580</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>127237</v>
+        <v>126656</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1033262121968056</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.08571915124648923</v>
+        <v>0.08489857500902966</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1247664370651054</v>
+        <v>0.1241964873551432</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>413</v>
@@ -2435,19 +2435,19 @@
         <v>442958</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>404028</v>
+        <v>404689</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>483759</v>
+        <v>480868</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1519035048917641</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1385531101959932</v>
+        <v>0.1387797331202685</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1658954706648427</v>
+        <v>0.1649037541955707</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>65107</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50077</v>
+        <v>51020</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>81488</v>
+        <v>82109</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2340162871058372</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1799942061975549</v>
+        <v>0.1833829416644245</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.292896785557916</v>
+        <v>0.2951264460702211</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>55</v>
@@ -2800,19 +2800,19 @@
         <v>58406</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>46009</v>
+        <v>46302</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>72350</v>
+        <v>72917</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2629614150560053</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2071482335213103</v>
+        <v>0.2084658770839506</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3257408445168969</v>
+        <v>0.3282951862449204</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>114</v>
@@ -2821,19 +2821,19 @@
         <v>123513</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>102027</v>
+        <v>103428</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>144817</v>
+        <v>144227</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2468658746039241</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2039226062777254</v>
+        <v>0.2067218415893059</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2894473550749793</v>
+        <v>0.2882676257924192</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>92389</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>76756</v>
+        <v>77370</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>108190</v>
+        <v>108670</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3320781180664808</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2758875844601651</v>
+        <v>0.2780952207825633</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3888735000863845</v>
+        <v>0.3905979692965963</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>72</v>
@@ -2871,19 +2871,19 @@
         <v>77541</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>62940</v>
+        <v>63991</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>93299</v>
+        <v>92448</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3491157049453981</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2833766587966511</v>
+        <v>0.2881059037621815</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4200632555575045</v>
+        <v>0.4162320348823197</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>161</v>
@@ -2892,19 +2892,19 @@
         <v>169931</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>149565</v>
+        <v>149042</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>194585</v>
+        <v>191119</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3396416003814945</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.298936067728233</v>
+        <v>0.2978911632055914</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3889185471235754</v>
+        <v>0.3819904311089611</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>66626</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>53391</v>
+        <v>53319</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>82591</v>
+        <v>84197</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.239477360848709</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1919055646653167</v>
+        <v>0.1916460535031644</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2968588068563079</v>
+        <v>0.3026321345938219</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>50</v>
@@ -2942,19 +2942,19 @@
         <v>56829</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>43255</v>
+        <v>44473</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>71215</v>
+        <v>70875</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2558603220504354</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1947482160076701</v>
+        <v>0.2002324273716301</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3206326151159617</v>
+        <v>0.3190995277260869</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>113</v>
@@ -2963,19 +2963,19 @@
         <v>123455</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>103859</v>
+        <v>103404</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>143764</v>
+        <v>141819</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2467502357104739</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2075839077916371</v>
+        <v>0.2066737209063165</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2873416371389778</v>
+        <v>0.2834546488687327</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>54093</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40406</v>
+        <v>41654</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67708</v>
+        <v>69200</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.194428233978973</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1452333291249802</v>
+        <v>0.1497202726827633</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2433661652514428</v>
+        <v>0.2487294161023484</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -3013,19 +3013,19 @@
         <v>29332</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19926</v>
+        <v>19681</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41304</v>
+        <v>40834</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1320625579481612</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08971520377456504</v>
+        <v>0.08860790169287401</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1859655840205344</v>
+        <v>0.1838463255623587</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>76</v>
@@ -3034,19 +3034,19 @@
         <v>83425</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>68393</v>
+        <v>67118</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>104778</v>
+        <v>102806</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1667422893041075</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1366976157553046</v>
+        <v>0.1341496581593058</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2094205171484721</v>
+        <v>0.2054792477408651</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>91031</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>74907</v>
+        <v>75185</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>108512</v>
+        <v>108617</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2400572632126151</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1975358393745371</v>
+        <v>0.1982698824336832</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2861572169838593</v>
+        <v>0.2864338707489226</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>84</v>
@@ -3159,19 +3159,19 @@
         <v>89011</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>72983</v>
+        <v>74387</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>105065</v>
+        <v>104605</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3485775228845748</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2858086075371004</v>
+        <v>0.291308223302439</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4114467518438018</v>
+        <v>0.4096423956484059</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>170</v>
@@ -3180,19 +3180,19 @@
         <v>180042</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>158697</v>
+        <v>159967</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>203435</v>
+        <v>205797</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2837272784516003</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2500898612101587</v>
+        <v>0.2520915553865957</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3205920633364502</v>
+        <v>0.3243151194047565</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>130146</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>113342</v>
+        <v>112885</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>150341</v>
+        <v>149458</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3432073508623315</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2988945224626194</v>
+        <v>0.2976889499280419</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3964637423871995</v>
+        <v>0.394135007899978</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -3230,19 +3230,19 @@
         <v>86397</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>71098</v>
+        <v>71832</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>103118</v>
+        <v>103491</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3383399435822339</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2784276113608544</v>
+        <v>0.281303072660017</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4038205310716139</v>
+        <v>0.4052819980533541</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>207</v>
@@ -3251,19 +3251,19 @@
         <v>216543</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>191186</v>
+        <v>193135</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>242178</v>
+        <v>241179</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3412486405649295</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3012897313344849</v>
+        <v>0.304359770939557</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3816464063453331</v>
+        <v>0.3800735652028243</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>108784</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>90251</v>
+        <v>91590</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>127192</v>
+        <v>128279</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2868727235933839</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2380000752557251</v>
+        <v>0.2415304514338979</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3354165284701632</v>
+        <v>0.3382847000031081</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>45</v>
@@ -3301,19 +3301,19 @@
         <v>51633</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>37551</v>
+        <v>37212</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>67463</v>
+        <v>66811</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2022009893198361</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1470528373912478</v>
+        <v>0.1457251482073473</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2641902517152573</v>
+        <v>0.2616393651059659</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>151</v>
@@ -3322,19 +3322,19 @@
         <v>160417</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>142068</v>
+        <v>138293</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>185246</v>
+        <v>183847</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2527996764295228</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2238837500736039</v>
+        <v>0.2179350207231139</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2919278639188076</v>
+        <v>0.2897240302151978</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>49245</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36200</v>
+        <v>37102</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>63291</v>
+        <v>64827</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1298626623316696</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09546293630001258</v>
+        <v>0.09784221014642314</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1669056653482666</v>
+        <v>0.1709545021583561</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>26</v>
@@ -3372,19 +3372,19 @@
         <v>28314</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18398</v>
+        <v>18423</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>39887</v>
+        <v>39579</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1108815442133552</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07204734097179184</v>
+        <v>0.07214520538530331</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1562020605657696</v>
+        <v>0.1549937912004349</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>71</v>
@@ -3393,19 +3393,19 @@
         <v>77559</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>61308</v>
+        <v>61829</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>97378</v>
+        <v>96590</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1222244045539475</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09661541211439208</v>
+        <v>0.09743621593667616</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1534575468408931</v>
+        <v>0.1522159583984857</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>158775</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>139900</v>
+        <v>135376</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>182223</v>
+        <v>178351</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3490571122084907</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3075624944773959</v>
+        <v>0.2976162153953122</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4006075987136609</v>
+        <v>0.3920956112829271</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>114</v>
@@ -3518,19 +3518,19 @@
         <v>121643</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>105953</v>
+        <v>103913</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>139569</v>
+        <v>138722</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4365234686087592</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3802218323378702</v>
+        <v>0.3728986743919023</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5008542824789065</v>
+        <v>0.497815698618363</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>263</v>
@@ -3539,19 +3539,19 @@
         <v>280417</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>252366</v>
+        <v>253674</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>306659</v>
+        <v>308884</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3822849303901329</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3440433169333033</v>
+        <v>0.3458262704382932</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4180602402696327</v>
+        <v>0.4210929377684169</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>144026</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>124875</v>
+        <v>125400</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>166159</v>
+        <v>165819</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3166335619094424</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2745305472837035</v>
+        <v>0.2756848490544989</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.365291715032021</v>
+        <v>0.3645443814845523</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>97</v>
@@ -3589,19 +3589,19 @@
         <v>102944</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>85332</v>
+        <v>86148</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>119322</v>
+        <v>119903</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3694229987998291</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3062201510534355</v>
+        <v>0.3091476284314057</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4281945544160871</v>
+        <v>0.4302827805850341</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>234</v>
@@ -3610,19 +3610,19 @@
         <v>246970</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>223998</v>
+        <v>219187</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>276710</v>
+        <v>271680</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3366878763120904</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3053698700466038</v>
+        <v>0.2988118008671914</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3772316568930125</v>
+        <v>0.3703740274702091</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>115255</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>98078</v>
+        <v>96059</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>136699</v>
+        <v>135324</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2533823074399578</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2156194932668877</v>
+        <v>0.2111810278774938</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.300525942912182</v>
+        <v>0.2975022285476231</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -3660,19 +3660,19 @@
         <v>39724</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29240</v>
+        <v>28773</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52795</v>
+        <v>52800</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1425538056445538</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.10493164964828</v>
+        <v>0.1032537435116976</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.189457358370764</v>
+        <v>0.1894754681551474</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>146</v>
@@ -3681,19 +3681,19 @@
         <v>154980</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>134403</v>
+        <v>132372</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>177591</v>
+        <v>178773</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2112793840010413</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.183228084569266</v>
+        <v>0.1804591771782956</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2421042766641835</v>
+        <v>0.2437165745127338</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>36811</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26646</v>
+        <v>25273</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>50985</v>
+        <v>50870</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08092701844210914</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05857917223188899</v>
+        <v>0.05556050801485227</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1120882730970487</v>
+        <v>0.1118352480214257</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -3731,19 +3731,19 @@
         <v>14351</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8244</v>
+        <v>8115</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23275</v>
+        <v>22960</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05149972694685791</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02958404187647532</v>
+        <v>0.02912075530688869</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08352422423051184</v>
+        <v>0.08239291381952035</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -3752,19 +3752,19 @@
         <v>51162</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>37369</v>
+        <v>38998</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>66124</v>
+        <v>67177</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06974780929673548</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05094477008230588</v>
+        <v>0.05316530677966804</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09014492793799592</v>
+        <v>0.09158088277290972</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>132507</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>115308</v>
+        <v>114770</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>150720</v>
+        <v>150828</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4485102919595915</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3902952689035693</v>
+        <v>0.3884733184436926</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5101564057182364</v>
+        <v>0.510520143948185</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>69</v>
@@ -3877,19 +3877,19 @@
         <v>78088</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>62486</v>
+        <v>64696</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>91364</v>
+        <v>92843</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4249386094269919</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3400367067682996</v>
+        <v>0.3520614598843606</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4971816109378728</v>
+        <v>0.5052307334813995</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>183</v>
@@ -3898,19 +3898,19 @@
         <v>210595</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>186233</v>
+        <v>189541</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>231774</v>
+        <v>234126</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4394711035934689</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3886310800951145</v>
+        <v>0.3955339469164021</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4836675256123719</v>
+        <v>0.4885737206301748</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>94074</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>77614</v>
+        <v>78166</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>111416</v>
+        <v>111877</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3184198994024831</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2627067869678621</v>
+        <v>0.2645743736386133</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3771207666727882</v>
+        <v>0.3786807676404463</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>64</v>
@@ -3948,19 +3948,19 @@
         <v>69706</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>56660</v>
+        <v>56350</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>84398</v>
+        <v>84946</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3793263792994878</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3083330620350663</v>
+        <v>0.3066445506419532</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4592784508358966</v>
+        <v>0.462255804087601</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>152</v>
@@ -3969,19 +3969,19 @@
         <v>163780</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>143193</v>
+        <v>143427</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>184988</v>
+        <v>186509</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3417761084361439</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2988144902414063</v>
+        <v>0.2993032061744583</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3860340495496112</v>
+        <v>0.3892081218451474</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>49396</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>37851</v>
+        <v>36411</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>64718</v>
+        <v>63788</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1671968135980031</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1281194778771847</v>
+        <v>0.123244173744998</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2190563991412883</v>
+        <v>0.2159108369326238</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -4019,19 +4019,19 @@
         <v>23186</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14973</v>
+        <v>15553</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>33812</v>
+        <v>34709</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1261760440143964</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08147922885319002</v>
+        <v>0.08463476227948157</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1839963103891209</v>
+        <v>0.1888767611993627</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>68</v>
@@ -4040,19 +4040,19 @@
         <v>72583</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>58343</v>
+        <v>57878</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>89045</v>
+        <v>90758</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1514663088842761</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1217493507599896</v>
+        <v>0.1207799367015426</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1858189720610063</v>
+        <v>0.1893946628848167</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>19461</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11899</v>
+        <v>11177</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29365</v>
+        <v>30045</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06587299503992226</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04027485239572631</v>
+        <v>0.03783096462280137</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09939557296258879</v>
+        <v>0.1016950478911403</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -4090,19 +4090,19 @@
         <v>12782</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7047</v>
+        <v>6921</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20635</v>
+        <v>20231</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06955896725912387</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03834786649993693</v>
+        <v>0.03766074038640572</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1122908233932354</v>
+        <v>0.1100921094199183</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>32</v>
@@ -4111,19 +4111,19 @@
         <v>32244</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>22370</v>
+        <v>22763</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>44961</v>
+        <v>44632</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06728647908611114</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04668082401674704</v>
+        <v>0.04750287148720952</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09382499833377615</v>
+        <v>0.09313806634459573</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>447420</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>413112</v>
+        <v>413852</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>484799</v>
+        <v>481851</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3178316101705695</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2934608413628295</v>
+        <v>0.2939864048679252</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3443849765072619</v>
+        <v>0.3422906527316495</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>322</v>
@@ -4236,19 +4236,19 @@
         <v>347147</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>319228</v>
+        <v>315651</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>379208</v>
+        <v>376748</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3693497085287135</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3396449221066557</v>
+        <v>0.335838626567926</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4034605761044928</v>
+        <v>0.4008432480326846</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>730</v>
@@ -4257,19 +4257,19 @@
         <v>794567</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>746059</v>
+        <v>749196</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>841720</v>
+        <v>847517</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3384573451521213</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.317794413938313</v>
+        <v>0.3191307923362812</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3585428803721964</v>
+        <v>0.3610121585719907</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>460635</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>425376</v>
+        <v>424979</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>498059</v>
+        <v>499318</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3272191196467879</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.302172366875977</v>
+        <v>0.3018906076344811</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3538039724730203</v>
+        <v>0.3546987418310299</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>312</v>
@@ -4307,19 +4307,19 @@
         <v>336588</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>308540</v>
+        <v>307131</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>366942</v>
+        <v>368538</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3581155210383772</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3282733257227248</v>
+        <v>0.3267741472747345</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3904099055999368</v>
+        <v>0.3921087736697072</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>754</v>
@@ -4328,19 +4328,19 @@
         <v>797223</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>750380</v>
+        <v>745191</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>841892</v>
+        <v>844806</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3395887723959335</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3196350744771719</v>
+        <v>0.3174250106779491</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3586158165429477</v>
+        <v>0.3598572462732957</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>340061</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>308311</v>
+        <v>307645</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>374415</v>
+        <v>374105</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.241567921960295</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2190135496258122</v>
+        <v>0.2185403808193396</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2659715144347948</v>
+        <v>0.2657512273700561</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>154</v>
@@ -4378,19 +4378,19 @@
         <v>171372</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>147241</v>
+        <v>146074</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>196537</v>
+        <v>197852</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1823328690515209</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1566581147680504</v>
+        <v>0.1554168848332211</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2091067141147207</v>
+        <v>0.2105064323985466</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>478</v>
@@ -4399,19 +4399,19 @@
         <v>511434</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>471486</v>
+        <v>470458</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>553398</v>
+        <v>553557</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2178526346757938</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2008364634176123</v>
+        <v>0.2003981549728362</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.235727996027206</v>
+        <v>0.2357955562748548</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>159610</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>136946</v>
+        <v>136967</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>187636</v>
+        <v>185398</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1133813482223475</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.09728211179001001</v>
+        <v>0.09729666523236098</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1332901907876176</v>
+        <v>0.1317003620433053</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>80</v>
@@ -4449,19 +4449,19 @@
         <v>84780</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>68562</v>
+        <v>68616</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>104095</v>
+        <v>105924</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.09020190138138841</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07294697043198924</v>
+        <v>0.07300400595649978</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1107530195688191</v>
+        <v>0.1126980834635774</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>228</v>
@@ -4470,19 +4470,19 @@
         <v>244390</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>215498</v>
+        <v>216097</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>276414</v>
+        <v>276017</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1041012477761513</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.09179451704767931</v>
+        <v>0.09204946003597743</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1177426751897855</v>
+        <v>0.1175734482896862</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>63597</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>51036</v>
+        <v>50144</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>80166</v>
+        <v>79293</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2188670878710234</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1756396684918513</v>
+        <v>0.1725707182004274</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2758912624589034</v>
+        <v>0.2728845280254396</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>59</v>
@@ -4835,19 +4835,19 @@
         <v>60143</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>47336</v>
+        <v>46492</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>73665</v>
+        <v>75387</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.217725460967819</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1713635811288143</v>
+        <v>0.1683057358785617</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2666746084279897</v>
+        <v>0.2729081189207023</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>117</v>
@@ -4856,19 +4856,19 @@
         <v>123740</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>106272</v>
+        <v>104395</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>145181</v>
+        <v>145412</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2183107134452702</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1874928661799674</v>
+        <v>0.1841817449293003</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2561394251793978</v>
+        <v>0.2565470173012592</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>86434</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>70812</v>
+        <v>70450</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>103236</v>
+        <v>101509</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2974619804383554</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2436981958265716</v>
+        <v>0.2424513785452499</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.355286755569901</v>
+        <v>0.3493412767886603</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>90</v>
@@ -4906,19 +4906,19 @@
         <v>89791</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>74615</v>
+        <v>75299</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>106787</v>
+        <v>106294</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3250529308632469</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.270113429463265</v>
+        <v>0.2725923542297604</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.386580335792749</v>
+        <v>0.3847956072768222</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>169</v>
@@ -4927,19 +4927,19 @@
         <v>176224</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>155621</v>
+        <v>154788</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>197513</v>
+        <v>200293</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3109084918647645</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2745581015223729</v>
+        <v>0.273089253077627</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3484671324165717</v>
+        <v>0.3533714334439967</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>81787</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>66551</v>
+        <v>67501</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>100643</v>
+        <v>99179</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.281467680647045</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.229034471785028</v>
+        <v>0.2323055779354115</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3463624737755219</v>
+        <v>0.3413233563781106</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>76</v>
@@ -4977,19 +4977,19 @@
         <v>79335</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>64649</v>
+        <v>64768</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>94829</v>
+        <v>95567</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2872023824957753</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2340362918557752</v>
+        <v>0.2344687785165591</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3432920327491488</v>
+        <v>0.3459648288023818</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>153</v>
@@ -4998,19 +4998,19 @@
         <v>161121</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>140904</v>
+        <v>139144</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>184389</v>
+        <v>184009</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2842625004248528</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2485926128688953</v>
+        <v>0.245488413186874</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3253134797784504</v>
+        <v>0.3246429065495984</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>58755</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46100</v>
+        <v>44539</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>75176</v>
+        <v>74444</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2022032510435763</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1586542904101901</v>
+        <v>0.1532808272284758</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2587160850877466</v>
+        <v>0.2561995854406976</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>44</v>
@@ -5048,19 +5048,19 @@
         <v>46965</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35105</v>
+        <v>34610</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>61096</v>
+        <v>59827</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1700192256731587</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1270831622508775</v>
+        <v>0.1252916523670564</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2211761432338768</v>
+        <v>0.2165826764730427</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>96</v>
@@ -5069,19 +5069,19 @@
         <v>105720</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>86803</v>
+        <v>87416</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>127381</v>
+        <v>124657</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1865182942651125</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1531452181906111</v>
+        <v>0.1542251014959046</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2247351824894793</v>
+        <v>0.2199300769399777</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>94013</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>79165</v>
+        <v>78456</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>111719</v>
+        <v>110945</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2417493384567314</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.203569761736931</v>
+        <v>0.20174490001195</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2872800756735445</v>
+        <v>0.2852912348011033</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>93</v>
@@ -5194,19 +5194,19 @@
         <v>96839</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>81526</v>
+        <v>82275</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>113372</v>
+        <v>114043</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3585909906573491</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.301887715085129</v>
+        <v>0.304660808597807</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4198154688605946</v>
+        <v>0.4223003150179105</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>184</v>
@@ -5215,19 +5215,19 @@
         <v>190851</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>168603</v>
+        <v>168156</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>213845</v>
+        <v>214137</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2896346253343451</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.255870919830984</v>
+        <v>0.2551928192018719</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.32453075684988</v>
+        <v>0.3249737343686272</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>136788</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>116425</v>
+        <v>117829</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>154524</v>
+        <v>157055</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3517441142152832</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2993804501960782</v>
+        <v>0.3029909787982403</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3973525881239537</v>
+        <v>0.4038601175994744</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>87</v>
@@ -5265,19 +5265,19 @@
         <v>90417</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>75524</v>
+        <v>75906</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>105273</v>
+        <v>106543</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3348125487468961</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2796625009316641</v>
+        <v>0.281079316060436</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3898248448418404</v>
+        <v>0.3945273444989399</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>214</v>
@@ -5286,19 +5286,19 @@
         <v>227205</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>204583</v>
+        <v>203171</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>252757</v>
+        <v>253251</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3448050402252243</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3104741980939455</v>
+        <v>0.3083317070574521</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3835828146918907</v>
+        <v>0.384332050959266</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>98216</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>83324</v>
+        <v>83264</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>117553</v>
+        <v>114640</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2525578283868166</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.21426315488214</v>
+        <v>0.2141097012230487</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3022811059031805</v>
+        <v>0.2947903345537643</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>60</v>
@@ -5336,19 +5336,19 @@
         <v>60157</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>47555</v>
+        <v>46781</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>74715</v>
+        <v>74318</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2227597124600984</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1760943050406704</v>
+        <v>0.1732292036080928</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2766660715380972</v>
+        <v>0.2751979034161668</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>156</v>
@@ -5357,19 +5357,19 @@
         <v>158373</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>136945</v>
+        <v>135789</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>178550</v>
+        <v>180352</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2403456480325598</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2078278296382491</v>
+        <v>0.206073070920123</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2709673491786196</v>
+        <v>0.2737017077191149</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>59868</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>45967</v>
+        <v>45626</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>74286</v>
+        <v>75505</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1539487189411688</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1182025797165677</v>
+        <v>0.1173241016276183</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1910241164008753</v>
+        <v>0.1941568106606997</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -5407,19 +5407,19 @@
         <v>22640</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>14771</v>
+        <v>14810</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>33539</v>
+        <v>33821</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08383674813565634</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05469583367169205</v>
+        <v>0.05484235454814715</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1241938690896311</v>
+        <v>0.1252382312421298</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>79</v>
@@ -5428,19 +5428,19 @@
         <v>82509</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>67069</v>
+        <v>68578</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>101083</v>
+        <v>101040</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1252146864078708</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1017835547625646</v>
+        <v>0.1040740708113135</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1534030758707365</v>
+        <v>0.1533377452483618</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>168068</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>145953</v>
+        <v>145893</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>190411</v>
+        <v>189619</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3708668291484541</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3220660187995254</v>
+        <v>0.3219342864640912</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4201696545398744</v>
+        <v>0.418422277786941</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>130</v>
@@ -5553,19 +5553,19 @@
         <v>128568</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>112951</v>
+        <v>112407</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>144505</v>
+        <v>146160</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4438238153194468</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3899148965589672</v>
+        <v>0.3880362338866771</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4988400964658363</v>
+        <v>0.5045546600018546</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>286</v>
@@ -5574,19 +5574,19 @@
         <v>296636</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>269090</v>
+        <v>269226</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>325380</v>
+        <v>323443</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3993168131703679</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3622358827039875</v>
+        <v>0.3624188485401801</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4380110932294569</v>
+        <v>0.4354034059621124</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>141206</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>121028</v>
+        <v>120857</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>161693</v>
+        <v>161675</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3115927970452748</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2670651152781165</v>
+        <v>0.2666894588281765</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3567999999610281</v>
+        <v>0.35676002116906</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>93</v>
@@ -5624,19 +5624,19 @@
         <v>91686</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>77827</v>
+        <v>76218</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>108276</v>
+        <v>109064</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3165048427102042</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2686640358981723</v>
+        <v>0.2631086542498102</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3737760895620253</v>
+        <v>0.3764961098504325</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>226</v>
@@ -5645,19 +5645,19 @@
         <v>232892</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>203715</v>
+        <v>209157</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>259166</v>
+        <v>260632</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3135082766726078</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2742317004355138</v>
+        <v>0.2815566857383149</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3488773691434196</v>
+        <v>0.3508498638826753</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>97375</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>79818</v>
+        <v>78578</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>116670</v>
+        <v>117045</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.214871452851492</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1761312028116777</v>
+        <v>0.1733935092057355</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2574497399877137</v>
+        <v>0.2582781537084358</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>48</v>
@@ -5695,19 +5695,19 @@
         <v>48782</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37389</v>
+        <v>37349</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>61877</v>
+        <v>62576</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1683998395051054</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1290684702099872</v>
+        <v>0.1289305716719973</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2136044947608183</v>
+        <v>0.2160149936846975</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>139</v>
@@ -5716,19 +5716,19 @@
         <v>146157</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>126089</v>
+        <v>126194</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>168779</v>
+        <v>170221</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1967495878106507</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1697354634409725</v>
+        <v>0.1698764970461254</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2272018433227472</v>
+        <v>0.2291430530099972</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>46527</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>34618</v>
+        <v>34631</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>61150</v>
+        <v>61514</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.102668920954779</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07639005815472968</v>
+        <v>0.07641936369075431</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1349359458648522</v>
+        <v>0.1357389882678158</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -5766,19 +5766,19 @@
         <v>20646</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13310</v>
+        <v>12829</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>32225</v>
+        <v>30396</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07127150246524354</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04594543551788504</v>
+        <v>0.04428488077323679</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1112414698201238</v>
+        <v>0.1049275319921637</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>63</v>
@@ -5787,19 +5787,19 @@
         <v>67173</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>51917</v>
+        <v>52595</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>84167</v>
+        <v>82394</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09042532234637357</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06988805828853289</v>
+        <v>0.07080110375940206</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1133021056106209</v>
+        <v>0.1109151643325887</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>112559</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>97184</v>
+        <v>96313</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>130131</v>
+        <v>129586</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4134477560573231</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3569695634030671</v>
+        <v>0.3537732262489221</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4779904474446773</v>
+        <v>0.4759874300922622</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>101</v>
@@ -5912,19 +5912,19 @@
         <v>107437</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>93550</v>
+        <v>93105</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>122012</v>
+        <v>120871</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5536182855296014</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4820591856175461</v>
+        <v>0.4797670348553132</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6287231191926169</v>
+        <v>0.6228423779859943</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>203</v>
@@ -5933,19 +5933,19 @@
         <v>219996</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>197770</v>
+        <v>199629</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>241643</v>
+        <v>242278</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4717822472774454</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4241172037959706</v>
+        <v>0.4281037685506571</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.518203796375917</v>
+        <v>0.519564992129539</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>92362</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>76984</v>
+        <v>76998</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>109233</v>
+        <v>109307</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3392586909042953</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2827726765482904</v>
+        <v>0.2828265436077186</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4012277220831814</v>
+        <v>0.4015018002740543</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>43</v>
@@ -5983,19 +5983,19 @@
         <v>44123</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>32643</v>
+        <v>33599</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>56683</v>
+        <v>57478</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2273659935302018</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1682099786957155</v>
+        <v>0.1731331600809455</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2920838506091876</v>
+        <v>0.296183519799541</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>127</v>
@@ -6004,19 +6004,19 @@
         <v>136485</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>116154</v>
+        <v>116380</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>156366</v>
+        <v>157715</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2926925289789688</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2490912757625053</v>
+        <v>0.2495769866232865</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3353264652900441</v>
+        <v>0.3382198690883594</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>43663</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>32719</v>
+        <v>31731</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>57342</v>
+        <v>57596</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1603822483343288</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1201820279951744</v>
+        <v>0.1165520936410444</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2106273424678118</v>
+        <v>0.2115597820404905</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>22</v>
@@ -6054,19 +6054,19 @@
         <v>22268</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14257</v>
+        <v>14901</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>32638</v>
+        <v>32749</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1147451943392496</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07346465963119669</v>
+        <v>0.07678553059827803</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1681849346814846</v>
+        <v>0.1687535337166323</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>62</v>
@@ -6075,19 +6075,19 @@
         <v>65931</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>52471</v>
+        <v>51458</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>82792</v>
+        <v>81934</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1413895660949804</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1125234773345166</v>
+        <v>0.1103522430059849</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1775478376346353</v>
+        <v>0.1757069236541383</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>23661</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14922</v>
+        <v>15359</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34792</v>
+        <v>34943</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08691130470405264</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05481067630780444</v>
+        <v>0.05641650304621156</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1277948156534615</v>
+        <v>0.1283504836478414</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -6125,19 +6125,19 @@
         <v>20235</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12481</v>
+        <v>12329</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>31509</v>
+        <v>30292</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1042705266009473</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06431275561342915</v>
+        <v>0.0635286448705784</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1623631683536302</v>
+        <v>0.1560960170490286</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -6146,19 +6146,19 @@
         <v>43896</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>31580</v>
+        <v>32261</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>58656</v>
+        <v>60582</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09413565764860528</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06772427492998549</v>
+        <v>0.0691832431747928</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1257885592739438</v>
+        <v>0.1299186633626661</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>438237</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>406186</v>
+        <v>405277</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>476427</v>
+        <v>476228</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3119392518512135</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2891255265697908</v>
+        <v>0.2884780463211722</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3391229232113027</v>
+        <v>0.3389817894508694</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>383</v>
@@ -6271,19 +6271,19 @@
         <v>392986</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>360567</v>
+        <v>361922</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>424244</v>
+        <v>425803</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3815282877340955</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3500546583382252</v>
+        <v>0.3513697773686018</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4118748239283955</v>
+        <v>0.4133889677174943</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>790</v>
@@ -6292,19 +6292,19 @@
         <v>831223</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>780183</v>
+        <v>783816</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>875828</v>
+        <v>881320</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3413772512574544</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3204153766444841</v>
+        <v>0.3219076292004301</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3596962436678232</v>
+        <v>0.3619518808647182</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>456790</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>420872</v>
+        <v>421448</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>491818</v>
+        <v>493442</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3251456761349349</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2995789846328656</v>
+        <v>0.2999889347472233</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3500787335183912</v>
+        <v>0.3512346723944786</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>313</v>
@@ -6342,19 +6342,19 @@
         <v>316017</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>284411</v>
+        <v>287631</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>343554</v>
+        <v>347483</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.306802961492222</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2761192916416888</v>
+        <v>0.2792451555416058</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3335377091364105</v>
+        <v>0.3373524609692092</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>736</v>
@@ -6363,19 +6363,19 @@
         <v>772807</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>728211</v>
+        <v>727332</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>819577</v>
+        <v>820640</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3173862235730429</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2990708366747128</v>
+        <v>0.2987100032687444</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3365945531057944</v>
+        <v>0.3370308109190884</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>321041</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>289886</v>
+        <v>288466</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>354216</v>
+        <v>354879</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2285182777271304</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2063423160121655</v>
+        <v>0.2053314173443005</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2521325587736994</v>
+        <v>0.2526050105479384</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>206</v>
@@ -6413,19 +6413,19 @@
         <v>210542</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>183546</v>
+        <v>184885</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>236427</v>
+        <v>239295</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2044035419069702</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1781947343573157</v>
+        <v>0.1794944725107689</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2295338827700104</v>
+        <v>0.2323183274816437</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>510</v>
@@ -6434,19 +6434,19 @@
         <v>531583</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>489631</v>
+        <v>491909</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>573855</v>
+        <v>575081</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2183171078194129</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2010878962912074</v>
+        <v>0.2020233087234543</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.235678319871951</v>
+        <v>0.2361817781754295</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>188811</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>163009</v>
+        <v>161238</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>216630</v>
+        <v>214565</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1343967942867212</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1160308892370361</v>
+        <v>0.1147703773985447</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1541986770614704</v>
+        <v>0.1527285327486486</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>104</v>
@@ -6484,19 +6484,19 @@
         <v>110486</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>91063</v>
+        <v>91862</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>132087</v>
+        <v>132908</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1072652088667123</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.08840778330457101</v>
+        <v>0.0891839371848851</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1282356789597064</v>
+        <v>0.1290331572662572</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>276</v>
@@ -6505,19 +6505,19 @@
         <v>299298</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>267915</v>
+        <v>266642</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>331255</v>
+        <v>335322</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1229194173500899</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1100305787427414</v>
+        <v>0.1095079466468863</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1360440351589527</v>
+        <v>0.1377145002957995</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>14713</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7667</v>
+        <v>7832</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25454</v>
+        <v>25592</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1544198234707283</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08047555268503337</v>
+        <v>0.08219927521009515</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2671628558701111</v>
+        <v>0.2686097159609425</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -6870,19 +6870,19 @@
         <v>14152</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8219</v>
+        <v>8213</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22348</v>
+        <v>22121</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1799751231957799</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1045246222555157</v>
+        <v>0.1044509053906414</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2841983008240903</v>
+        <v>0.2813181561188852</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -6891,19 +6891,19 @@
         <v>28865</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19960</v>
+        <v>18165</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41614</v>
+        <v>40328</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1659747627802792</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1147694581363363</v>
+        <v>0.1044491777171747</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.239284118318927</v>
+        <v>0.2318902272925254</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>11672</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5856</v>
+        <v>5863</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20180</v>
+        <v>20391</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1225027791704996</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06146195153941317</v>
+        <v>0.06153649934990636</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2118028538591403</v>
+        <v>0.214017798495147</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -6941,19 +6941,19 @@
         <v>16276</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10019</v>
+        <v>10385</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24248</v>
+        <v>23305</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2069807865591992</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1274090817904362</v>
+        <v>0.1320700644144558</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3083596645390715</v>
+        <v>0.2963779328121145</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>30</v>
@@ -6962,19 +6962,19 @@
         <v>27947</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19282</v>
+        <v>18776</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38684</v>
+        <v>37866</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1606998756190032</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1108717361646291</v>
+        <v>0.107961733669023</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.222438492340641</v>
+        <v>0.217731172929962</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>32612</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22077</v>
+        <v>21990</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>44320</v>
+        <v>43541</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3422861662562795</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2317196267946758</v>
+        <v>0.2308030884525199</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4651780917864983</v>
+        <v>0.4569999933895897</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -7012,19 +7012,19 @@
         <v>31437</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23157</v>
+        <v>23684</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>40358</v>
+        <v>39901</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3997898507088861</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2944923478950663</v>
+        <v>0.3011966759189569</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5132408083557616</v>
+        <v>0.5074325401321104</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>61</v>
@@ -7033,19 +7033,19 @@
         <v>64049</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>50278</v>
+        <v>49980</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>79175</v>
+        <v>78103</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3682867059124073</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2891057851219799</v>
+        <v>0.2873919343618279</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4552663300067853</v>
+        <v>0.4490983228411137</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>36280</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25497</v>
+        <v>26144</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49103</v>
+        <v>48232</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3807912311024925</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2676095271778421</v>
+        <v>0.2743992087140572</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5153729933567555</v>
+        <v>0.5062306743864178</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -7083,19 +7083,19 @@
         <v>16769</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10850</v>
+        <v>10731</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24817</v>
+        <v>24534</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.213254239536135</v>
+        <v>0.2132542395361349</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1379800100444741</v>
+        <v>0.1364696250487992</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3155968135333325</v>
+        <v>0.3119996590322405</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -7104,19 +7104,19 @@
         <v>53049</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39926</v>
+        <v>39242</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>67966</v>
+        <v>68366</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3050386556883103</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2295792592571191</v>
+        <v>0.2256431779617154</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3908113781696286</v>
+        <v>0.3931116017696885</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>43515</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>31005</v>
+        <v>30330</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>58581</v>
+        <v>57596</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1872560825080874</v>
+        <v>0.1872560825080875</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.133419920816809</v>
+        <v>0.1305160303575154</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2520850715801729</v>
+        <v>0.2478469955546189</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>41</v>
@@ -7229,19 +7229,19 @@
         <v>32478</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>24088</v>
+        <v>23593</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>42612</v>
+        <v>42463</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.1979189400886677</v>
+        <v>0.1979189400886676</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1467890083409014</v>
+        <v>0.143774898647463</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2596715001396497</v>
+        <v>0.2587658560462274</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>75</v>
@@ -7250,19 +7250,19 @@
         <v>75994</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>60504</v>
+        <v>61350</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>92440</v>
+        <v>92547</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1916692870535615</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1526005958592265</v>
+        <v>0.1547358983828591</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2331512289898788</v>
+        <v>0.2334208938925877</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>68530</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54103</v>
+        <v>54958</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84367</v>
+        <v>85950</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2948981395884913</v>
+        <v>0.2948981395884912</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2328173106813608</v>
+        <v>0.2364957597095632</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3630496490614507</v>
+        <v>0.3698612387409884</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>68</v>
@@ -7300,19 +7300,19 @@
         <v>56835</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47114</v>
+        <v>45372</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68665</v>
+        <v>68164</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.346346278070623</v>
+        <v>0.3463462780706229</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2871101952574427</v>
+        <v>0.2764911370272138</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4184345693987058</v>
+        <v>0.4153828588712662</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>127</v>
@@ -7321,19 +7321,19 @@
         <v>125365</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>105388</v>
+        <v>106286</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>145588</v>
+        <v>144789</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3161917897089845</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2658064728670707</v>
+        <v>0.2680712991191487</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3671992009837343</v>
+        <v>0.3651830072569321</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>79610</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>62906</v>
+        <v>62569</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>95785</v>
+        <v>96238</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3425805418731553</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2707000735689019</v>
+        <v>0.2692487327931961</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4121835783612564</v>
+        <v>0.4141349095957328</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>64</v>
@@ -7371,19 +7371,19 @@
         <v>50265</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>39227</v>
+        <v>40042</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>61144</v>
+        <v>61655</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3063066014581673</v>
+        <v>0.3063066014581672</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2390423118697446</v>
+        <v>0.2440091476062623</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3726023946426334</v>
+        <v>0.375718327561775</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>128</v>
@@ -7392,19 +7392,19 @@
         <v>129875</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>108798</v>
+        <v>111697</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>150323</v>
+        <v>150892</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3275672757283241</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2744075941703333</v>
+        <v>0.2817194727191414</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3791406504771466</v>
+        <v>0.3805754268529945</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>40729</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28732</v>
+        <v>28107</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>57140</v>
+        <v>55407</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1752652360302661</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.123641215834789</v>
+        <v>0.1209486936135807</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2458875060474319</v>
+        <v>0.2384273988324781</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>30</v>
@@ -7442,19 +7442,19 @@
         <v>24521</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>16700</v>
+        <v>17311</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>34180</v>
+        <v>34318</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1494281803825422</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1017653915271908</v>
+        <v>0.1054902000031845</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2082917644019274</v>
+        <v>0.2091281072306664</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>60</v>
@@ -7463,19 +7463,19 @@
         <v>65250</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>50639</v>
+        <v>51228</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>84885</v>
+        <v>82801</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1645716475091299</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.127720966610652</v>
+        <v>0.1292072094121783</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2140961785372074</v>
+        <v>0.2088381090591141</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>93709</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>76697</v>
+        <v>76024</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>111400</v>
+        <v>112639</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2909101691675894</v>
+        <v>0.2909101691675895</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2380998507124482</v>
+        <v>0.2360109874882959</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3458315493232061</v>
+        <v>0.3496770596324475</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>111</v>
@@ -7588,19 +7588,19 @@
         <v>87107</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>74956</v>
+        <v>73430</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>101512</v>
+        <v>100367</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3536152000195288</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3042884116316199</v>
+        <v>0.2980932369330733</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4120910686973521</v>
+        <v>0.4074451015541607</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>191</v>
@@ -7609,19 +7609,19 @@
         <v>180816</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>158038</v>
+        <v>156992</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>203989</v>
+        <v>204171</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3180825779548162</v>
+        <v>0.3180825779548161</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2780127219146012</v>
+        <v>0.2761734253844648</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3588477693003929</v>
+        <v>0.3591675742726352</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>125236</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>107875</v>
+        <v>104405</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>145169</v>
+        <v>142990</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3887833626212738</v>
+        <v>0.3887833626212739</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3348891417038937</v>
+        <v>0.3241177655033356</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4506640925239931</v>
+        <v>0.4439003107534635</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>141</v>
@@ -7659,19 +7659,19 @@
         <v>97934</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>85711</v>
+        <v>85172</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>111809</v>
+        <v>111285</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.3975663778532376</v>
+        <v>0.3975663778532375</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3479468890082544</v>
+        <v>0.3457581801532368</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4538948255820154</v>
+        <v>0.4517666292396337</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>258</v>
@@ -7680,19 +7680,19 @@
         <v>223169</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>200298</v>
+        <v>198035</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>247771</v>
+        <v>245098</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.3925893679293787</v>
+        <v>0.3925893679293786</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3523548100971071</v>
+        <v>0.3483736084729371</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4358666090983975</v>
+        <v>0.4311657010529023</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>70183</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>55344</v>
+        <v>55696</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>88252</v>
+        <v>85388</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2178761472325285</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1718106476014518</v>
+        <v>0.1729025318072425</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2739709095520457</v>
+        <v>0.2650790623492523</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>60</v>
@@ -7730,19 +7730,19 @@
         <v>41253</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31572</v>
+        <v>32903</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51098</v>
+        <v>53278</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1674697971678121</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1281665040506504</v>
+        <v>0.13357190036546</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.207435556489282</v>
+        <v>0.2162847362872374</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>128</v>
@@ -7751,19 +7751,19 @@
         <v>111436</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>94847</v>
+        <v>92342</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>132757</v>
+        <v>131745</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1960332116526927</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1668501126445829</v>
+        <v>0.16244385301745</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2335408840169118</v>
+        <v>0.2317591477677693</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>32995</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21839</v>
+        <v>22166</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>50226</v>
+        <v>50637</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1024303209786081</v>
+        <v>0.1024303209786082</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06779605764700748</v>
+        <v>0.06881152625079899</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1559216514231751</v>
+        <v>0.1571986382126787</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -7801,19 +7801,19 @@
         <v>20039</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13164</v>
+        <v>12986</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29419</v>
+        <v>28728</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08134862495942145</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05343990962658591</v>
+        <v>0.05271818776767412</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1194259818562487</v>
+        <v>0.1166216909620379</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -7822,19 +7822,19 @@
         <v>53034</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>38682</v>
+        <v>40103</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>71028</v>
+        <v>73081</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0932948424631124</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06804774363063158</v>
+        <v>0.07054805276207581</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.124949821081896</v>
+        <v>0.1285610898006627</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>149223</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>129056</v>
+        <v>129252</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>171165</v>
+        <v>170791</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4687709746298117</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4054160260993107</v>
+        <v>0.406033897398819</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.537697579923299</v>
+        <v>0.5365238767673919</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>126</v>
@@ -7947,19 +7947,19 @@
         <v>93666</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>82232</v>
+        <v>80845</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>107014</v>
+        <v>106396</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4337151700663952</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3807704641680085</v>
+        <v>0.374351151974338</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.495524487726038</v>
+        <v>0.4926634573923317</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>252</v>
@@ -7968,19 +7968,19 @@
         <v>242889</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>220106</v>
+        <v>220362</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>266963</v>
+        <v>266345</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4546013258800666</v>
+        <v>0.4546013258800665</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4119604214908695</v>
+        <v>0.4124380526873228</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4996596073913194</v>
+        <v>0.4985032312735196</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>105748</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>86336</v>
+        <v>88209</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>126171</v>
+        <v>125197</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.332195669210056</v>
+        <v>0.3321956692100561</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2712173768123003</v>
+        <v>0.2771000851460679</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3963534380135908</v>
+        <v>0.393294382592443</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>122</v>
@@ -8018,19 +8018,19 @@
         <v>78184</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>67521</v>
+        <v>67312</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>90812</v>
+        <v>90808</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3620275894465843</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3126521622987614</v>
+        <v>0.3116855156833501</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4205033639242109</v>
+        <v>0.420483837697171</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>221</v>
@@ -8039,19 +8039,19 @@
         <v>183931</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>161860</v>
+        <v>164224</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>206340</v>
+        <v>207465</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.344253810124133</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3029442876417764</v>
+        <v>0.3073695533655258</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.386195332080664</v>
+        <v>0.3883008598276413</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>33158</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>22088</v>
+        <v>21125</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>46659</v>
+        <v>47856</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1041638133447606</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06938625966674399</v>
+        <v>0.06636186916806393</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1465746287686773</v>
+        <v>0.1503349155612149</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>35</v>
@@ -8089,19 +8089,19 @@
         <v>27430</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>19968</v>
+        <v>19625</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>38296</v>
+        <v>38634</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1270146164284144</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.092459673366657</v>
+        <v>0.09087059413041476</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1773297278308661</v>
+        <v>0.1788951961889705</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>61</v>
@@ -8110,19 +8110,19 @@
         <v>60589</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>46716</v>
+        <v>46438</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>77757</v>
+        <v>78272</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.113400168275917</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08743571177557344</v>
+        <v>0.08691459330324355</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1455335883299153</v>
+        <v>0.1464978510714264</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>30200</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17637</v>
+        <v>18095</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45990</v>
+        <v>46973</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.09486954281537166</v>
+        <v>0.09486954281537167</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05540550877980057</v>
+        <v>0.05684478933181573</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1444736392292534</v>
+        <v>0.1475596589961098</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -8160,19 +8160,19 @@
         <v>16681</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10382</v>
+        <v>10561</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24686</v>
+        <v>24989</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.07724262405860613</v>
+        <v>0.07724262405860612</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04807206302920632</v>
+        <v>0.04890139647274231</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.114307577961974</v>
+        <v>0.1157099739585966</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>41</v>
@@ -8181,19 +8181,19 @@
         <v>46881</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>33025</v>
+        <v>32065</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>64761</v>
+        <v>66392</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.08774469571988343</v>
+        <v>0.08774469571988341</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06181049588051708</v>
+        <v>0.0600140196590891</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1212101328237712</v>
+        <v>0.1242625888688702</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>301160</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>268678</v>
+        <v>271229</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>333325</v>
+        <v>334070</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3110796829619648</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2775275968388581</v>
+        <v>0.2801629473275527</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.344304479328602</v>
+        <v>0.3450739304290251</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>293</v>
@@ -8306,19 +8306,19 @@
         <v>227403</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>204693</v>
+        <v>204957</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>249155</v>
+        <v>250106</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3225453197247354</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2903338047271469</v>
+        <v>0.2907085708252592</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3533979096026071</v>
+        <v>0.3547469988470918</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>544</v>
@@ -8327,19 +8327,19 @@
         <v>528563</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>489596</v>
+        <v>492853</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>568255</v>
+        <v>569498</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3159110725048029</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2926211716312471</v>
+        <v>0.2945679599788781</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3396341214747252</v>
+        <v>0.3403772611139035</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>311184</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>281042</v>
+        <v>283394</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>344908</v>
+        <v>347651</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3214346358406238</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2902994670354301</v>
+        <v>0.2927291691332491</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3562688111358541</v>
+        <v>0.3591023474360334</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>351</v>
@@ -8377,19 +8377,19 @@
         <v>249228</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>228045</v>
+        <v>226991</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>275274</v>
+        <v>272302</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3535018091573632</v>
+        <v>0.3535018091573631</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3234550439933979</v>
+        <v>0.3219601896170723</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3904446072154501</v>
+        <v>0.3862287618004605</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>636</v>
@@ -8398,19 +8398,19 @@
         <v>560413</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>520850</v>
+        <v>524280</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>599342</v>
+        <v>605272</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3349471000008292</v>
+        <v>0.3349471000008291</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.311301238214722</v>
+        <v>0.3133513828177697</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3582143514523785</v>
+        <v>0.3617588008539768</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>215563</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>184684</v>
+        <v>186681</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>244595</v>
+        <v>247263</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2226635647411188</v>
+        <v>0.2226635647411187</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1907671737567765</v>
+        <v>0.1928305851628905</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2526518070744968</v>
+        <v>0.2554079638507554</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>195</v>
@@ -8448,19 +8448,19 @@
         <v>150385</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>133647</v>
+        <v>132309</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>173055</v>
+        <v>171375</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2133041974121164</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1895625338154487</v>
+        <v>0.1876647429336317</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2454582200167967</v>
+        <v>0.2430763718568656</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>378</v>
@@ -8469,19 +8469,19 @@
         <v>365948</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>332370</v>
+        <v>332518</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>402000</v>
+        <v>403856</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.218719714924792</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1986504655807048</v>
+        <v>0.1987393763823055</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2402668478353655</v>
+        <v>0.2413764084507296</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>140204</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>115016</v>
+        <v>116342</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>167058</v>
+        <v>166824</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1448221164562927</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1188044399834128</v>
+        <v>0.1201738453611634</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1725605934529709</v>
+        <v>0.1723191382938539</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>97</v>
@@ -8519,19 +8519,19 @@
         <v>78010</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>63763</v>
+        <v>64940</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>94818</v>
+        <v>94021</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1106486737057849</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.09044045962137554</v>
+        <v>0.09210977376402793</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1344891610283656</v>
+        <v>0.1333586574941929</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>197</v>
@@ -8540,19 +8540,19 @@
         <v>218214</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>187836</v>
+        <v>188376</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>254394</v>
+        <v>252755</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.1304221125695759</v>
+        <v>0.130422112569576</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1122654449328322</v>
+        <v>0.1125887074474705</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1520461952355307</v>
+        <v>0.1510666096747216</v>
       </c>
     </row>
     <row r="28">
